--- a/Config/Australia_Registry_other_than_directors_Config.xlsx
+++ b/Config/Australia_Registry_other_than_directors_Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL123\PycharmProjects\MNS-Australia\MNS-Australia\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC6B3FD-206F-405F-ADDB-C5315A1610D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5B1F8A-5888-4197-BE0C-EAE612B9CE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="1245" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
   <si>
     <t>Field_Name</t>
   </si>
@@ -199,6 +199,15 @@
   </si>
   <si>
     <t>name,date_after_to_in_heading</t>
+  </si>
+  <si>
+    <t>shareholdings_summary</t>
+  </si>
+  <si>
+    <t>total_equity_shares</t>
+  </si>
+  <si>
+    <t>number_issued_under_share_structure</t>
   </si>
 </sst>
 </file>
@@ -574,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,6 +882,23 @@
         <v>48</v>
       </c>
     </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/Australia_Registry_other_than_directors_Config.xlsx
+++ b/Config/Australia_Registry_other_than_directors_Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL123\PycharmProjects\MNS-Australia\MNS-Australia\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5B1F8A-5888-4197-BE0C-EAE612B9CE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA73015-4025-4C02-BF81-7238FA0BA138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="64">
   <si>
     <t>Field_Name</t>
   </si>
@@ -208,6 +208,18 @@
   </si>
   <si>
     <t>number_issued_under_share_structure</t>
+  </si>
+  <si>
+    <t>branch_address</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>contact_address_current</t>
   </si>
 </sst>
 </file>
@@ -583,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,6 +911,26 @@
         <v>58</v>
       </c>
     </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
